--- a/data/trans_orig/P29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{599E2E06-6CE0-44AD-9F50-6BB33606A56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74139D92-267A-425A-ACFC-B91D2C247CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73A0087F-CE7F-4D71-BDCE-8828842BCE30}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD3F355-A24A-4975-B115-524D266D619D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="439">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>68,04%</t>
+    <t>67,51%</t>
   </si>
   <si>
     <t>72,78%</t>
@@ -95,10 +95,10 @@
     <t>54,93%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
@@ -107,28 +107,25 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>Si</t>
@@ -137,1222 +134,1228 @@
     <t>45,65%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ADCF8C-E5FA-4CC3-A860-88FCC46867D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C31798-0705-40B7-BF9E-33B9D25AD33C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1954,13 +1957,13 @@
         <v>221023</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -1969,19 +1972,19 @@
         <v>419095</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>473</v>
@@ -1990,13 +1993,13 @@
         <v>470993</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>165</v>
@@ -2005,13 +2008,13 @@
         <v>167535</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>638</v>
@@ -2020,13 +2023,13 @@
         <v>638528</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2044,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -2056,13 +2059,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -2071,18 +2074,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2094,13 +2097,13 @@
         <v>380859</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>645</v>
@@ -2109,13 +2112,13 @@
         <v>674511</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1007</v>
@@ -2124,13 +2127,13 @@
         <v>1055370</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2148,13 @@
         <v>253150</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>385</v>
@@ -2160,13 +2163,13 @@
         <v>379309</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>637</v>
@@ -2175,19 +2178,19 @@
         <v>632458</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>1035</v>
@@ -2196,13 +2199,13 @@
         <v>1059404</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>524</v>
@@ -2211,13 +2214,13 @@
         <v>533854</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>1559</v>
@@ -2226,13 +2229,13 @@
         <v>1593258</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2250,13 @@
         <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -2262,13 +2265,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -2277,18 +2280,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2300,13 +2303,13 @@
         <v>110036</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>172</v>
@@ -2315,13 +2318,13 @@
         <v>185897</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>273</v>
@@ -2330,13 +2333,13 @@
         <v>295932</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2354,13 @@
         <v>90865</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -2366,13 +2369,13 @@
         <v>96383</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -2381,19 +2384,19 @@
         <v>187249</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>338</v>
@@ -2402,13 +2405,13 @@
         <v>350507</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -2417,13 +2420,13 @@
         <v>194132</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>524</v>
@@ -2432,13 +2435,13 @@
         <v>544639</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2456,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2468,13 +2471,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2483,13 +2486,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2509,13 @@
         <v>853552</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1720</v>
@@ -2521,13 +2524,13 @@
         <v>1786962</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>2547</v>
@@ -2536,13 +2539,13 @@
         <v>2640514</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2560,13 @@
         <v>542088</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>702</v>
@@ -2572,13 +2575,13 @@
         <v>696715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>1243</v>
@@ -2587,19 +2590,19 @@
         <v>1238802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>1846</v>
@@ -2608,13 +2611,13 @@
         <v>1880904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>875</v>
@@ -2623,28 +2626,28 @@
         <v>895521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>2721</v>
       </c>
       <c r="N18" s="7">
-        <v>2776424</v>
+        <v>2776425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2662,13 @@
         <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2674,33 +2677,33 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4766B1EB-1535-425F-8DDC-00D3DEC816D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1827494-B12E-438E-80B4-E36F32ED15B4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2843,13 +2846,13 @@
         <v>355086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>903</v>
@@ -2858,13 +2861,13 @@
         <v>971944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>1228</v>
@@ -2873,13 +2876,13 @@
         <v>1327030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2897,13 @@
         <v>107939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>129</v>
@@ -2909,13 +2912,13 @@
         <v>133639</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>233</v>
@@ -2924,19 +2927,19 @@
         <v>241578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>479</v>
@@ -2945,13 +2948,13 @@
         <v>511618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>214</v>
@@ -2960,13 +2963,13 @@
         <v>231246</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>693</v>
@@ -2975,13 +2978,13 @@
         <v>742865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2999,13 @@
         <v>974643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1246</v>
@@ -3011,13 +3014,13 @@
         <v>1336830</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2154</v>
@@ -3026,18 +3029,18 @@
         <v>2311473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3049,13 +3052,13 @@
         <v>501653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>823</v>
@@ -3064,13 +3067,13 @@
         <v>883062</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>1296</v>
@@ -3079,13 +3082,13 @@
         <v>1384714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3103,13 @@
         <v>261213</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>260</v>
@@ -3115,13 +3118,13 @@
         <v>276657</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>510</v>
@@ -3130,19 +3133,19 @@
         <v>537870</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>1133</v>
@@ -3151,13 +3154,13 @@
         <v>1201091</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>552</v>
@@ -3166,13 +3169,13 @@
         <v>598084</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>1685</v>
@@ -3181,13 +3184,13 @@
         <v>1799175</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3205,13 @@
         <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1635</v>
@@ -3217,13 +3220,13 @@
         <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3491</v>
@@ -3232,18 +3235,18 @@
         <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3255,13 +3258,13 @@
         <v>85649</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -3270,13 +3273,13 @@
         <v>166535</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M12" s="7">
         <v>221</v>
@@ -3285,13 +3288,13 @@
         <v>252184</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3309,13 @@
         <v>69337</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3321,13 +3324,13 @@
         <v>66487</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3336,19 +3339,19 @@
         <v>135824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>305</v>
@@ -3357,13 +3360,13 @@
         <v>326195</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3372,13 +3375,13 @@
         <v>224607</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -3387,13 +3390,13 @@
         <v>550803</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3411,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>411</v>
@@ -3423,13 +3426,13 @@
         <v>457629</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>849</v>
@@ -3438,13 +3441,13 @@
         <v>938811</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3464,13 @@
         <v>942387</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>1874</v>
@@ -3476,13 +3479,13 @@
         <v>2021541</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>2745</v>
@@ -3491,13 +3494,13 @@
         <v>2963928</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3515,13 @@
         <v>438489</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -3527,13 +3530,13 @@
         <v>476784</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>864</v>
@@ -3542,19 +3545,19 @@
         <v>915273</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>1917</v>
@@ -3563,13 +3566,13 @@
         <v>2038905</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>968</v>
@@ -3578,13 +3581,13 @@
         <v>1053937</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>2885</v>
@@ -3593,13 +3596,13 @@
         <v>3092843</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3617,13 @@
         <v>3419782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3292</v>
@@ -3629,13 +3632,13 @@
         <v>3552262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6494</v>
@@ -3644,18 +3647,18 @@
         <v>6972044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A90528-CFB0-4D16-A5FD-EAB3FD4DA548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C159C7-1288-445D-BED2-30D66FA947A4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,7 +3694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3798,13 +3801,13 @@
         <v>115450</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>450</v>
@@ -3813,13 +3816,13 @@
         <v>515584</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>562</v>
@@ -3828,13 +3831,13 @@
         <v>631034</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3852,13 @@
         <v>278021</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>309</v>
@@ -3864,13 +3867,13 @@
         <v>337129</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>599</v>
@@ -3879,19 +3882,19 @@
         <v>615150</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>359</v>
@@ -3900,13 +3903,13 @@
         <v>359912</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>129</v>
@@ -3915,13 +3918,13 @@
         <v>137537</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -3930,13 +3933,13 @@
         <v>497449</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3954,13 @@
         <v>753383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>888</v>
@@ -3966,13 +3969,13 @@
         <v>990250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1649</v>
@@ -3981,18 +3984,18 @@
         <v>1743633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4004,13 +4007,13 @@
         <v>272997</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>487</v>
@@ -4019,7 +4022,7 @@
         <v>516766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>262</v>
@@ -4037,10 +4040,10 @@
         <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4058,13 @@
         <v>545075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>718</v>
@@ -4070,13 +4073,13 @@
         <v>741957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -4085,19 +4088,19 @@
         <v>1287032</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>1184</v>
@@ -4106,13 +4109,13 @@
         <v>1257218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>703</v>
@@ -4121,13 +4124,13 @@
         <v>729578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>1887</v>
@@ -4136,13 +4139,13 @@
         <v>1986795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4160,13 @@
         <v>2075290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -4172,13 +4175,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3859</v>
@@ -4187,18 +4190,18 @@
         <v>4063590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4210,13 +4213,13 @@
         <v>43061</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>82</v>
@@ -4225,13 +4228,13 @@
         <v>85175</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -4240,13 +4243,13 @@
         <v>128236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,10 +4264,10 @@
         <v>124405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>294</v>
@@ -4303,7 +4306,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>346</v>
@@ -4363,13 +4366,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>524</v>
@@ -4378,13 +4381,13 @@
         <v>547022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1025</v>
@@ -4393,13 +4396,13 @@
         <v>1093909</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,10 +4434,10 @@
         <v>1117525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>314</v>
@@ -4467,13 +4470,13 @@
         <v>947501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>1201</v>
@@ -4482,10 +4485,10 @@
         <v>1256957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>321</v>
@@ -4509,7 +4512,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>1889</v>
@@ -4569,13 +4572,13 @@
         <v>3375560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3320</v>
@@ -4584,13 +4587,13 @@
         <v>3525572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6533</v>
@@ -4599,18 +4602,18 @@
         <v>6901132</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CD19C9-D7A4-49F3-BF96-557C2695E51C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0853FD-0AA4-44EA-AA5E-F32892041817}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,7 +4849,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>345</v>
@@ -4858,10 +4861,10 @@
         <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -4870,13 +4873,13 @@
         <v>129819</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>552</v>
@@ -4885,13 +4888,13 @@
         <v>416350</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>48</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4909,13 @@
         <v>539368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1423</v>
@@ -4921,13 +4924,13 @@
         <v>831192</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2112</v>
@@ -4936,18 +4939,18 @@
         <v>1370561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4959,13 +4962,13 @@
         <v>340528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>898</v>
@@ -4974,13 +4977,13 @@
         <v>608759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>1258</v>
@@ -4989,13 +4992,13 @@
         <v>949287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5013,13 @@
         <v>545449</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>978</v>
@@ -5025,13 +5028,13 @@
         <v>715978</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>1493</v>
@@ -5040,19 +5043,19 @@
         <v>1261426</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>1113</v>
@@ -5061,13 +5064,13 @@
         <v>1271825</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>1040</v>
@@ -5076,13 +5079,13 @@
         <v>921059</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>2153</v>
@@ -5091,13 +5094,13 @@
         <v>2192884</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5115,13 @@
         <v>2157802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>2916</v>
@@ -5127,13 +5130,13 @@
         <v>2245796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>4904</v>
@@ -5142,18 +5145,18 @@
         <v>4403598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5165,13 +5168,13 @@
         <v>107930</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>284</v>
@@ -5180,13 +5183,13 @@
         <v>176933</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>408</v>
@@ -5195,13 +5198,13 @@
         <v>284862</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5219,13 @@
         <v>144726</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -5231,13 +5234,13 @@
         <v>179613</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>386</v>
@@ -5246,19 +5249,19 @@
         <v>324339</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>415</v>
@@ -5267,13 +5270,13 @@
         <v>420383</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -5282,7 +5285,7 @@
         <v>355237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>408</v>
@@ -5318,13 +5321,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1002</v>
@@ -5333,13 +5336,13 @@
         <v>711783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1683</v>
@@ -5348,13 +5351,13 @@
         <v>1384822</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,10 +5377,10 @@
         <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>1838</v>
@@ -5386,13 +5389,13 @@
         <v>1143270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>2441</v>
@@ -5401,13 +5404,13 @@
         <v>1668807</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5425,13 @@
         <v>865933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>1782</v>
@@ -5437,13 +5440,13 @@
         <v>1239386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>2664</v>
@@ -5452,19 +5455,19 @@
         <v>2105319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>1873</v>
@@ -5473,28 +5476,28 @@
         <v>1978740</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>1721</v>
       </c>
       <c r="I18" s="7">
-        <v>1406115</v>
+        <v>1406116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>3594</v>
@@ -5503,13 +5506,13 @@
         <v>3384856</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,28 +5527,28 @@
         <v>3370210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>5341</v>
       </c>
       <c r="I19" s="7">
-        <v>3788771</v>
+        <v>3788772</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>8699</v>
@@ -5554,18 +5557,18 @@
         <v>7158982</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74139D92-267A-425A-ACFC-B91D2C247CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22A3188-9D00-4CEB-8BDF-0223A69B9F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD3F355-A24A-4975-B115-524D266D619D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B444644-377F-4D7E-A843-DF7444F72418}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
@@ -107,25 +107,28 @@
     <t>19,2%</t>
   </si>
   <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Si</t>
@@ -134,28 +137,28 @@
     <t>45,65%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,949 +170,946 @@
     <t>22,49%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
     <t>30,38%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
   </si>
   <si>
     <t>28,33%</t>
@@ -1767,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C31798-0705-40B7-BF9E-33B9D25AD33C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE831A3-2EE9-46F5-AF95-FA6084CF13A0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,13 +1957,13 @@
         <v>221023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -1972,19 +1972,19 @@
         <v>419095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>473</v>
@@ -1993,13 +1993,13 @@
         <v>470993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>165</v>
@@ -2008,13 +2008,13 @@
         <v>167535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>638</v>
@@ -2023,13 +2023,13 @@
         <v>638528</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2044,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -2059,13 +2059,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -2074,18 +2074,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2097,13 +2097,13 @@
         <v>380859</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>645</v>
@@ -2112,13 +2112,13 @@
         <v>674511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1007</v>
@@ -2127,13 +2127,13 @@
         <v>1055370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,13 +2148,13 @@
         <v>253150</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>385</v>
@@ -2163,13 +2163,13 @@
         <v>379309</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>637</v>
@@ -2178,19 +2178,19 @@
         <v>632458</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>1035</v>
@@ -2199,13 +2199,13 @@
         <v>1059404</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>524</v>
@@ -2214,13 +2214,13 @@
         <v>533854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>1559</v>
@@ -2229,13 +2229,13 @@
         <v>1593258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,16 +2247,16 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -2265,13 +2265,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -2280,18 +2280,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2303,13 +2303,13 @@
         <v>110036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>172</v>
@@ -2318,13 +2318,13 @@
         <v>185897</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>273</v>
@@ -2333,13 +2333,13 @@
         <v>295932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2354,13 @@
         <v>90865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -2369,10 +2369,10 @@
         <v>96383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>83</v>
@@ -2396,7 +2396,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>338</v>
@@ -2456,13 +2456,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2471,13 +2471,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2486,13 +2486,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>853552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>1720</v>
@@ -2524,13 +2524,13 @@
         <v>1786962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>2547</v>
@@ -2539,13 +2539,13 @@
         <v>2640514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,16 +2557,16 @@
         <v>541</v>
       </c>
       <c r="D17" s="7">
-        <v>542088</v>
+        <v>542087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>702</v>
@@ -2575,13 +2575,13 @@
         <v>696715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>1243</v>
@@ -2590,19 +2590,19 @@
         <v>1238802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>1846</v>
@@ -2611,13 +2611,13 @@
         <v>1880904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>875</v>
@@ -2626,13 +2626,13 @@
         <v>895521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>2721</v>
@@ -2641,13 +2641,13 @@
         <v>2776425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,16 +2659,16 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2677,13 +2677,13 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
@@ -2692,18 +2692,18 @@
         <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1827494-B12E-438E-80B4-E36F32ED15B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2F34F9-A104-4DD8-830D-8EEB89EB97B7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2846,13 +2846,13 @@
         <v>355086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>903</v>
@@ -2861,13 +2861,13 @@
         <v>971944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1228</v>
@@ -2876,13 +2876,13 @@
         <v>1327030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2897,7 @@
         <v>107939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>132</v>
@@ -2933,13 +2933,13 @@
         <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>479</v>
@@ -2948,13 +2948,13 @@
         <v>511618</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>214</v>
@@ -2963,13 +2963,13 @@
         <v>231246</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>693</v>
@@ -2978,13 +2978,13 @@
         <v>742865</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2999,13 @@
         <v>974643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1246</v>
@@ -3014,13 +3014,13 @@
         <v>1336830</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2154</v>
@@ -3029,18 +3029,18 @@
         <v>2311473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3052,13 +3052,13 @@
         <v>501653</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>823</v>
@@ -3067,13 +3067,13 @@
         <v>883062</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>1296</v>
@@ -3082,13 +3082,13 @@
         <v>1384714</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>261213</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>260</v>
@@ -3118,13 +3118,13 @@
         <v>276657</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>510</v>
@@ -3133,19 +3133,19 @@
         <v>537870</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>1133</v>
@@ -3154,13 +3154,13 @@
         <v>1201091</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>552</v>
@@ -3169,13 +3169,13 @@
         <v>598084</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>1685</v>
@@ -3184,13 +3184,13 @@
         <v>1799175</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3205,13 @@
         <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1635</v>
@@ -3220,13 +3220,13 @@
         <v>1757803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3491</v>
@@ -3235,18 +3235,18 @@
         <v>3721760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3258,13 +3258,13 @@
         <v>85649</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -3273,13 +3273,13 @@
         <v>166535</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>221</v>
@@ -3288,13 +3288,13 @@
         <v>252184</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3309,13 @@
         <v>69337</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3324,13 +3324,13 @@
         <v>66487</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3339,19 +3339,19 @@
         <v>135824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>305</v>
@@ -3360,13 +3360,13 @@
         <v>326195</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3375,13 +3375,13 @@
         <v>224607</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -3390,13 +3390,13 @@
         <v>550803</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3411,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>411</v>
@@ -3426,13 +3426,13 @@
         <v>457629</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>849</v>
@@ -3441,13 +3441,13 @@
         <v>938811</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3464,13 @@
         <v>942387</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>1874</v>
@@ -3479,13 +3479,13 @@
         <v>2021541</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>2745</v>
@@ -3494,13 +3494,13 @@
         <v>2963928</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3515,13 @@
         <v>438489</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -3530,13 +3530,13 @@
         <v>476784</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>864</v>
@@ -3545,19 +3545,19 @@
         <v>915273</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>1917</v>
@@ -3566,13 +3566,13 @@
         <v>2038905</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>968</v>
@@ -3581,13 +3581,13 @@
         <v>1053937</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M18" s="7">
         <v>2885</v>
@@ -3596,13 +3596,13 @@
         <v>3092843</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3617,13 @@
         <v>3419782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3292</v>
@@ -3632,13 +3632,13 @@
         <v>3552262</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6494</v>
@@ -3647,18 +3647,18 @@
         <v>6972044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C159C7-1288-445D-BED2-30D66FA947A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE08911-D921-4783-98B1-D7A2F6791C10}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3694,7 +3694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3801,13 +3801,13 @@
         <v>115450</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>450</v>
@@ -3816,13 +3816,13 @@
         <v>515584</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>562</v>
@@ -3831,13 +3831,13 @@
         <v>631034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3852,13 @@
         <v>278021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>309</v>
@@ -3867,13 +3867,13 @@
         <v>337129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>599</v>
@@ -3882,19 +3882,19 @@
         <v>615150</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>359</v>
@@ -3903,13 +3903,13 @@
         <v>359912</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>129</v>
@@ -3918,13 +3918,13 @@
         <v>137537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -3933,13 +3933,13 @@
         <v>497449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3954,13 @@
         <v>753383</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>888</v>
@@ -3969,13 +3969,13 @@
         <v>990250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1649</v>
@@ -3984,18 +3984,18 @@
         <v>1743633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4007,13 +4007,13 @@
         <v>272997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>487</v>
@@ -4022,13 +4022,13 @@
         <v>516766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>736</v>
@@ -4037,13 +4037,13 @@
         <v>789763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4058,13 @@
         <v>545075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>718</v>
@@ -4073,13 +4073,13 @@
         <v>741957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -4088,19 +4088,19 @@
         <v>1287032</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>1184</v>
@@ -4109,13 +4109,13 @@
         <v>1257218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>703</v>
@@ -4124,13 +4124,13 @@
         <v>729578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>1887</v>
@@ -4139,13 +4139,13 @@
         <v>1986795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>2075290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -4175,13 +4175,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3859</v>
@@ -4190,18 +4190,18 @@
         <v>4063590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4213,13 +4213,13 @@
         <v>43061</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>82</v>
@@ -4228,13 +4228,13 @@
         <v>85175</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -4243,13 +4243,13 @@
         <v>128236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4264,13 @@
         <v>124405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -4279,13 +4279,13 @@
         <v>177872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -4294,19 +4294,19 @@
         <v>302277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>346</v>
@@ -4315,13 +4315,13 @@
         <v>379420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>268</v>
@@ -4330,13 +4330,13 @@
         <v>283975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>614</v>
@@ -4345,13 +4345,13 @@
         <v>663396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>524</v>
@@ -4381,13 +4381,13 @@
         <v>547022</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1025</v>
@@ -4396,13 +4396,13 @@
         <v>1093909</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4419,13 @@
         <v>431508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>1019</v>
@@ -4434,13 +4434,13 @@
         <v>1117525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>1418</v>
@@ -4449,13 +4449,13 @@
         <v>1549033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4470,13 @@
         <v>947501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>1201</v>
@@ -4485,13 +4485,13 @@
         <v>1256957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>2126</v>
@@ -4500,19 +4500,19 @@
         <v>2204459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>1889</v>
@@ -4521,13 +4521,13 @@
         <v>1996551</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H18" s="7">
         <v>1100</v>
@@ -4536,13 +4536,13 @@
         <v>1151089</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M18" s="7">
         <v>2989</v>
@@ -4551,13 +4551,13 @@
         <v>3147640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4572,13 @@
         <v>3375560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3320</v>
@@ -4587,13 +4587,13 @@
         <v>3525572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6533</v>
@@ -4602,18 +4602,18 @@
         <v>6901132</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +4632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0853FD-0AA4-44EA-AA5E-F32892041817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEB102C-3C43-4EA7-ACE1-76FF28578F3D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4649,7 +4649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4756,13 +4756,13 @@
         <v>77079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>656</v>
@@ -4771,13 +4771,13 @@
         <v>357578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>775</v>
@@ -4786,13 +4786,13 @@
         <v>434657</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4807,13 @@
         <v>175758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>560</v>
@@ -4822,13 +4822,13 @@
         <v>343795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>785</v>
@@ -4837,19 +4837,19 @@
         <v>519553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>345</v>
@@ -4858,13 +4858,13 @@
         <v>286531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -4873,13 +4873,13 @@
         <v>129819</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>552</v>
@@ -4888,7 +4888,7 @@
         <v>416350</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>357</v>
@@ -4909,13 +4909,13 @@
         <v>539368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1423</v>
@@ -4924,13 +4924,13 @@
         <v>831192</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2112</v>
@@ -4939,18 +4939,18 @@
         <v>1370561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5055,7 +5055,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>1113</v>
@@ -5115,13 +5115,13 @@
         <v>2157802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>2916</v>
@@ -5130,13 +5130,13 @@
         <v>2245796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>4904</v>
@@ -5145,18 +5145,18 @@
         <v>4403598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5261,7 +5261,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>415</v>
@@ -5321,13 +5321,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>1002</v>
@@ -5336,13 +5336,13 @@
         <v>711783</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1683</v>
@@ -5351,13 +5351,13 @@
         <v>1384822</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +5467,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>1873</v>
@@ -5527,13 +5527,13 @@
         <v>3370210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>5341</v>
@@ -5542,13 +5542,13 @@
         <v>3788772</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>8699</v>
@@ -5557,18 +5557,18 @@
         <v>7158982</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22A3188-9D00-4CEB-8BDF-0223A69B9F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FD411D-90F9-4FB5-82DD-CF63CE6A6FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B444644-377F-4D7E-A843-DF7444F72418}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32AA7AD6-1D6D-463D-BE58-7999DDC9B777}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="438">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
@@ -107,1255 +107,1252 @@
     <t>19,2%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
   </si>
   <si>
     <t>38,87%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>21,25%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
+    <t>27,55%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE831A3-2EE9-46F5-AF95-FA6084CF13A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9A8611-9AFC-4299-94E0-754B0E0B4584}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2247,7 +2244,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2372,10 +2369,10 @@
         <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -2384,13 +2381,13 @@
         <v>187249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2402,13 @@
         <v>350507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -2420,13 +2417,13 @@
         <v>194132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>524</v>
@@ -2435,13 +2432,13 @@
         <v>544639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2506,13 @@
         <v>853552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1720</v>
@@ -2524,13 +2521,13 @@
         <v>1786962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>2547</v>
@@ -2539,13 +2536,13 @@
         <v>2640514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,16 +2554,16 @@
         <v>541</v>
       </c>
       <c r="D17" s="7">
-        <v>542087</v>
+        <v>542088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>702</v>
@@ -2575,13 +2572,13 @@
         <v>696715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1243</v>
@@ -2590,13 +2587,13 @@
         <v>1238802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2608,13 @@
         <v>1880904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>875</v>
@@ -2626,28 +2623,28 @@
         <v>895521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>2721</v>
       </c>
       <c r="N18" s="7">
-        <v>2776425</v>
+        <v>2776424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2656,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2689,7 +2686,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2703,7 +2700,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2F34F9-A104-4DD8-830D-8EEB89EB97B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D13873-C4AD-4EFC-928B-6B5E90C01B56}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2846,13 +2843,13 @@
         <v>355086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>903</v>
@@ -2861,13 +2858,13 @@
         <v>971944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1228</v>
@@ -2876,13 +2873,13 @@
         <v>1327030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2894,13 @@
         <v>107939</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>129</v>
@@ -2912,13 +2909,13 @@
         <v>133639</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>233</v>
@@ -2927,13 +2924,13 @@
         <v>241578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2945,13 @@
         <v>511618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>214</v>
@@ -2963,13 +2960,13 @@
         <v>231246</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>693</v>
@@ -2978,13 +2975,13 @@
         <v>742865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3049,13 @@
         <v>501653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>823</v>
@@ -3067,13 +3064,13 @@
         <v>883062</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1296</v>
@@ -3082,13 +3079,13 @@
         <v>1384714</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3100,13 @@
         <v>261213</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>260</v>
@@ -3118,13 +3115,13 @@
         <v>276657</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>510</v>
@@ -3133,13 +3130,13 @@
         <v>537870</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3151,13 @@
         <v>1201091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>552</v>
@@ -3169,13 +3166,13 @@
         <v>598084</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>1685</v>
@@ -3184,13 +3181,13 @@
         <v>1799175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3255,13 @@
         <v>85649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>148</v>
@@ -3273,13 +3270,13 @@
         <v>166535</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M12" s="7">
         <v>221</v>
@@ -3288,13 +3285,13 @@
         <v>252184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3306,13 @@
         <v>69337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -3324,13 +3321,13 @@
         <v>66487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -3339,13 +3336,13 @@
         <v>135824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3357,13 @@
         <v>326195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
         <v>202</v>
@@ -3375,13 +3372,13 @@
         <v>224607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -3390,13 +3387,13 @@
         <v>550803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3461,13 @@
         <v>942387</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>1874</v>
@@ -3479,13 +3476,13 @@
         <v>2021541</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>2745</v>
@@ -3494,13 +3491,13 @@
         <v>2963928</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3512,13 @@
         <v>438489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -3530,13 +3527,13 @@
         <v>476784</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>864</v>
@@ -3545,13 +3542,13 @@
         <v>915273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3563,13 @@
         <v>2038905</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>968</v>
@@ -3581,13 +3578,13 @@
         <v>1053937</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>2885</v>
@@ -3596,13 +3593,13 @@
         <v>3092843</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3655,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE08911-D921-4783-98B1-D7A2F6791C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B825FC-ECAC-40E2-8984-3FC2F0DFCBAE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3694,7 +3691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3801,13 +3798,13 @@
         <v>115450</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>450</v>
@@ -3816,13 +3813,13 @@
         <v>515584</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>562</v>
@@ -3831,13 +3828,13 @@
         <v>631034</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3849,13 @@
         <v>278021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>309</v>
@@ -3867,13 +3864,13 @@
         <v>337129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>599</v>
@@ -3882,13 +3879,13 @@
         <v>615150</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3900,13 @@
         <v>359912</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>129</v>
@@ -3918,13 +3915,13 @@
         <v>137537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>488</v>
@@ -3933,13 +3930,13 @@
         <v>497449</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4004,13 @@
         <v>272997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>487</v>
@@ -4022,13 +4019,13 @@
         <v>516766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>736</v>
@@ -4037,13 +4034,13 @@
         <v>789763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4055,13 @@
         <v>545075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>718</v>
@@ -4073,13 +4070,13 @@
         <v>741957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -4088,13 +4085,13 @@
         <v>1287032</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4106,13 @@
         <v>1257218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>703</v>
@@ -4124,13 +4121,13 @@
         <v>729578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>1887</v>
@@ -4139,13 +4136,13 @@
         <v>1986795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4210,13 @@
         <v>43061</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>82</v>
@@ -4228,13 +4225,13 @@
         <v>85175</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -4243,13 +4240,13 @@
         <v>128236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4261,13 @@
         <v>124405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -4279,13 +4276,13 @@
         <v>177872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -4294,13 +4291,13 @@
         <v>302277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4312,13 @@
         <v>379420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
         <v>268</v>
@@ -4330,13 +4327,13 @@
         <v>283975</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>614</v>
@@ -4345,13 +4342,13 @@
         <v>663396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4416,13 @@
         <v>431508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>1019</v>
@@ -4434,13 +4431,13 @@
         <v>1117525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>1418</v>
@@ -4449,13 +4446,13 @@
         <v>1549033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4467,13 @@
         <v>947501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>1201</v>
@@ -4485,13 +4482,13 @@
         <v>1256957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>2126</v>
@@ -4500,13 +4497,13 @@
         <v>2204459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4518,13 @@
         <v>1996551</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>1100</v>
@@ -4536,13 +4533,13 @@
         <v>1151089</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>2989</v>
@@ -4551,13 +4548,13 @@
         <v>3147640</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4610,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +4629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEB102C-3C43-4EA7-ACE1-76FF28578F3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422055E-CE56-4F1D-82FB-FFD61CFFCD8F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4649,7 +4646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4756,13 +4753,13 @@
         <v>77079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>656</v>
@@ -4771,13 +4768,13 @@
         <v>357578</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>775</v>
@@ -4786,13 +4783,13 @@
         <v>434657</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4804,13 @@
         <v>175758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>560</v>
@@ -4822,13 +4819,13 @@
         <v>343795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>785</v>
@@ -4837,13 +4834,13 @@
         <v>519553</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4855,13 @@
         <v>286531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -4873,13 +4870,13 @@
         <v>129819</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>552</v>
@@ -4888,13 +4885,13 @@
         <v>416350</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4959,13 @@
         <v>340528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>898</v>
@@ -4977,13 +4974,13 @@
         <v>608759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>1258</v>
@@ -4992,13 +4989,13 @@
         <v>949287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5010,13 @@
         <v>545449</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>978</v>
@@ -5028,13 +5025,13 @@
         <v>715978</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>1493</v>
@@ -5043,13 +5040,13 @@
         <v>1261426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5061,13 @@
         <v>1271825</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>1040</v>
@@ -5079,13 +5076,13 @@
         <v>921059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>2153</v>
@@ -5094,13 +5091,13 @@
         <v>2192884</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5165,13 @@
         <v>107930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>284</v>
@@ -5183,13 +5180,13 @@
         <v>176933</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>408</v>
@@ -5198,13 +5195,13 @@
         <v>284862</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5216,13 @@
         <v>144726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -5234,13 +5231,13 @@
         <v>179613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>386</v>
@@ -5249,13 +5246,13 @@
         <v>324339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5267,13 @@
         <v>420383</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -5285,7 +5282,7 @@
         <v>355237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>408</v>
@@ -5377,10 +5374,10 @@
         <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>1838</v>
@@ -5389,13 +5386,13 @@
         <v>1143270</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>2441</v>
@@ -5404,13 +5401,13 @@
         <v>1668807</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5422,13 @@
         <v>865933</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>1782</v>
@@ -5440,13 +5437,13 @@
         <v>1239386</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>2664</v>
@@ -5455,13 +5452,13 @@
         <v>2105319</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,28 +5473,28 @@
         <v>1978740</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>1721</v>
       </c>
       <c r="I18" s="7">
-        <v>1406116</v>
+        <v>1406115</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>3594</v>
@@ -5506,13 +5503,13 @@
         <v>3384856</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5536,7 @@
         <v>5341</v>
       </c>
       <c r="I19" s="7">
-        <v>3788772</v>
+        <v>3788771</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5568,7 +5565,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FD411D-90F9-4FB5-82DD-CF63CE6A6FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D15231-8CE8-4E29-9330-569A07017CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32AA7AD6-1D6D-463D-BE58-7999DDC9B777}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0E8F3EF7-3488-42FD-94FB-16244C3AAC3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="440">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1046,313 +1046,319 @@
     <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9A8611-9AFC-4299-94E0-754B0E0B4584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200BDA77-D9D4-43FE-A96A-49424A4AADE0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2068,7 +2074,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2244,7 +2250,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2554,7 +2560,7 @@
         <v>541</v>
       </c>
       <c r="D17" s="7">
-        <v>542088</v>
+        <v>542087</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -2635,7 +2641,7 @@
         <v>2721</v>
       </c>
       <c r="N18" s="7">
-        <v>2776424</v>
+        <v>2776425</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>121</v>
@@ -2656,7 +2662,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2671,7 +2677,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2686,7 +2692,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2719,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D13873-C4AD-4EFC-928B-6B5E90C01B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B9498E-A705-4533-AEC0-626C2F152C1B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3674,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B825FC-ECAC-40E2-8984-3FC2F0DFCBAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36768E32-827D-4DFD-B141-A14AD1C83573}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4381,7 @@
         <v>524</v>
       </c>
       <c r="I15" s="7">
-        <v>547022</v>
+        <v>547023</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4629,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422055E-CE56-4F1D-82FB-FFD61CFFCD8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CFC6D1-9C46-4296-97A6-B9F9C7AC6909}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4750,7 +4756,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="7">
-        <v>77079</v>
+        <v>73300</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>335</v>
@@ -4765,7 +4771,7 @@
         <v>656</v>
       </c>
       <c r="I4" s="7">
-        <v>357578</v>
+        <v>327797</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>338</v>
@@ -4780,16 +4786,16 @@
         <v>775</v>
       </c>
       <c r="N4" s="7">
-        <v>434657</v>
+        <v>401097</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,46 +4807,46 @@
         <v>225</v>
       </c>
       <c r="D5" s="7">
-        <v>175758</v>
+        <v>163644</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>560</v>
       </c>
       <c r="I5" s="7">
-        <v>343795</v>
+        <v>306883</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>785</v>
       </c>
       <c r="N5" s="7">
-        <v>519553</v>
+        <v>470527</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,46 +4858,46 @@
         <v>345</v>
       </c>
       <c r="D6" s="7">
-        <v>286531</v>
+        <v>275795</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>129819</v>
+        <v>116653</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>552</v>
       </c>
       <c r="N6" s="7">
-        <v>416350</v>
+        <v>392448</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4909,7 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>539368</v>
+        <v>512739</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4918,7 +4924,7 @@
         <v>1423</v>
       </c>
       <c r="I7" s="7">
-        <v>831192</v>
+        <v>751333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4933,7 +4939,7 @@
         <v>2112</v>
       </c>
       <c r="N7" s="7">
-        <v>1370561</v>
+        <v>1264072</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4956,46 +4962,46 @@
         <v>360</v>
       </c>
       <c r="D8" s="7">
-        <v>340528</v>
+        <v>326495</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>898</v>
       </c>
       <c r="I8" s="7">
-        <v>608759</v>
+        <v>577281</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>1258</v>
       </c>
       <c r="N8" s="7">
-        <v>949287</v>
+        <v>903775</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,22 +5013,22 @@
         <v>515</v>
       </c>
       <c r="D9" s="7">
-        <v>545449</v>
+        <v>528319</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>978</v>
       </c>
       <c r="I9" s="7">
-        <v>715978</v>
+        <v>648639</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>372</v>
@@ -5037,7 +5043,7 @@
         <v>1493</v>
       </c>
       <c r="N9" s="7">
-        <v>1261426</v>
+        <v>1176958</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>375</v>
@@ -5058,7 +5064,7 @@
         <v>1113</v>
       </c>
       <c r="D10" s="7">
-        <v>1271825</v>
+        <v>1431521</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>378</v>
@@ -5073,7 +5079,7 @@
         <v>1040</v>
       </c>
       <c r="I10" s="7">
-        <v>921059</v>
+        <v>1008585</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>381</v>
@@ -5088,7 +5094,7 @@
         <v>2153</v>
       </c>
       <c r="N10" s="7">
-        <v>2192884</v>
+        <v>2440105</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>384</v>
@@ -5109,7 +5115,7 @@
         <v>1988</v>
       </c>
       <c r="D11" s="7">
-        <v>2157802</v>
+        <v>2286334</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5124,7 +5130,7 @@
         <v>2916</v>
       </c>
       <c r="I11" s="7">
-        <v>2245796</v>
+        <v>2234505</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5139,7 +5145,7 @@
         <v>4904</v>
       </c>
       <c r="N11" s="7">
-        <v>4403598</v>
+        <v>4520838</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5162,7 +5168,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="7">
-        <v>107930</v>
+        <v>100778</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>387</v>
@@ -5177,7 +5183,7 @@
         <v>284</v>
       </c>
       <c r="I12" s="7">
-        <v>176933</v>
+        <v>161277</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>390</v>
@@ -5192,7 +5198,7 @@
         <v>408</v>
       </c>
       <c r="N12" s="7">
-        <v>284862</v>
+        <v>262055</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>393</v>
@@ -5213,7 +5219,7 @@
         <v>142</v>
       </c>
       <c r="D13" s="7">
-        <v>144726</v>
+        <v>135805</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>396</v>
@@ -5228,7 +5234,7 @@
         <v>244</v>
       </c>
       <c r="I13" s="7">
-        <v>179613</v>
+        <v>166312</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>399</v>
@@ -5243,7 +5249,7 @@
         <v>386</v>
       </c>
       <c r="N13" s="7">
-        <v>324339</v>
+        <v>302117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>402</v>
@@ -5264,7 +5270,7 @@
         <v>415</v>
       </c>
       <c r="D14" s="7">
-        <v>420383</v>
+        <v>410040</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>405</v>
@@ -5279,31 +5285,31 @@
         <v>474</v>
       </c>
       <c r="I14" s="7">
-        <v>355237</v>
+        <v>331179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>889</v>
       </c>
       <c r="N14" s="7">
-        <v>775621</v>
+        <v>741219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5321,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5330,7 +5336,7 @@
         <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>711783</v>
+        <v>658768</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5345,7 +5351,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1384822</v>
+        <v>1305391</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5368,46 +5374,46 @@
         <v>603</v>
       </c>
       <c r="D16" s="7">
-        <v>525537</v>
+        <v>500573</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>1838</v>
       </c>
       <c r="I16" s="7">
-        <v>1143270</v>
+        <v>1066355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>2441</v>
       </c>
       <c r="N16" s="7">
-        <v>1668807</v>
+        <v>1566927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,46 +5425,46 @@
         <v>882</v>
       </c>
       <c r="D17" s="7">
-        <v>865933</v>
+        <v>827767</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>1782</v>
       </c>
       <c r="I17" s="7">
-        <v>1239386</v>
+        <v>1121834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>2664</v>
       </c>
       <c r="N17" s="7">
-        <v>2105319</v>
+        <v>1949602</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,46 +5476,46 @@
         <v>1873</v>
       </c>
       <c r="D18" s="7">
-        <v>1978740</v>
+        <v>2117356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H18" s="7">
         <v>1721</v>
       </c>
       <c r="I18" s="7">
-        <v>1406115</v>
+        <v>1456417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>3594</v>
       </c>
       <c r="N18" s="7">
-        <v>3384856</v>
+        <v>3573773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5527,7 @@
         <v>3358</v>
       </c>
       <c r="D19" s="7">
-        <v>3370210</v>
+        <v>3445696</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5536,7 +5542,7 @@
         <v>5341</v>
       </c>
       <c r="I19" s="7">
-        <v>3788771</v>
+        <v>3644606</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5551,7 +5557,7 @@
         <v>8699</v>
       </c>
       <c r="N19" s="7">
-        <v>7158982</v>
+        <v>7090301</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
